--- a/api/data/VENDOR.xlsx
+++ b/api/data/VENDOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE83CC02-743E-0245-9C5C-73EDC26E81DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E03EF-10A9-7B43-88C7-0A99C2D6514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="22400" xr2:uid="{B8749A22-A0F9-C144-96DA-EDBF852CA594}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21420" windowHeight="20620" xr2:uid="{B8749A22-A0F9-C144-96DA-EDBF852CA594}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>company_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Asan Medical Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul National University Hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hana@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,8 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의료업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>World Tour</t>
+  </si>
+  <si>
+    <t>SJ Tour</t>
   </si>
 </sst>
 </file>
@@ -496,7 +482,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -536,16 +522,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -556,16 +542,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -573,19 +559,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -593,19 +579,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1234</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
